--- a/Data/Charges_OneTime.xlsx
+++ b/Data/Charges_OneTime.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Kind Attention Person</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Anil Agarwal</t>
+  </si>
+  <si>
+    <t>Dinesh Maheshwari</t>
+  </si>
+  <si>
+    <t>Godrej</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -108,13 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,87 +443,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>30000</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
         <v>15000</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
         <v>30000</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
         <v>15000</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
